--- a/study03/report/correlation/effective-participants/SimpleCorrPairAnalysis-weak.xlsx
+++ b/study03/report/correlation/effective-participants/SimpleCorrPairAnalysis-weak.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="54">
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Intrinsic Motivation in w/o-gamified.Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Intrinsic Motivation in w/o-gamified.Master using the method: spearman</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -26,7 +26,7 @@
     <t>Correlation matrix</t>
   </si>
   <si>
-    <t>Gains in Skills/Knowledge</t>
+    <t>Gains in Skill/Knowledge</t>
   </si>
   <si>
     <t>Intrinsic Motivation</t>
@@ -56,10 +56,10 @@
     <t>GiS/K-IntrM</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Intrinsic Motivation in w/o-gamified.Master</t>
-  </si>
-  <si>
-    <t>Data full source for Gains in Skills/Knowledge - Intrinsic Motivation in w/o-gamified.Master</t>
+    <t>Data source for Gains in Skill/Knowledge - Intrinsic Motivation in w/o-gamified.Master</t>
+  </si>
+  <si>
+    <t>Data full source for Gains in Skill/Knowledge - Intrinsic Motivation in w/o-gamified.Master</t>
   </si>
   <si>
     <t>UserID</t>
@@ -107,7 +107,7 @@
     <t/>
   </si>
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Pressure/Tension in w/o-gamified.Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Pressure/Tension in w/o-gamified.Master using the method: spearman</t>
   </si>
   <si>
     <t>Pressure/Tension</t>
@@ -116,13 +116,13 @@
     <t>GiS/K-Prs/T</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Pressure/Tension in w/o-gamified.Master</t>
-  </si>
-  <si>
-    <t>Data full source for Gains in Skills/Knowledge - Pressure/Tension in w/o-gamified.Master</t>
-  </si>
-  <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Attention in Master using the method: spearman</t>
+    <t>Data source for Gains in Skill/Knowledge - Pressure/Tension in w/o-gamified.Master</t>
+  </si>
+  <si>
+    <t>Data full source for Gains in Skill/Knowledge - Pressure/Tension in w/o-gamified.Master</t>
+  </si>
+  <si>
+    <t>Correlation information for Gains in Skill/Knowledge - Attention in Master using the method: spearman</t>
   </si>
   <si>
     <t>Attention</t>
@@ -131,10 +131,10 @@
     <t>GiS/K-Attnt</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Attention in Master</t>
-  </si>
-  <si>
-    <t>Data full source for Gains in Skills/Knowledge - Attention in Master</t>
+    <t>Data source for Gains in Skill/Knowledge - Attention in Master</t>
+  </si>
+  <si>
+    <t>Data full source for Gains in Skill/Knowledge - Attention in Master</t>
   </si>
   <si>
     <t>ont-gamified</t>
@@ -164,7 +164,7 @@
     <t>Yee Achiever</t>
   </si>
   <si>
-    <t>Correlation information for Gains in Skills/Knowledge - Relevance in Master using the method: spearman</t>
+    <t>Correlation information for Gains in Skill/Knowledge - Relevance in Master using the method: spearman</t>
   </si>
   <si>
     <t>Relevance</t>
@@ -173,10 +173,10 @@
     <t>GiS/K-Rlvnc</t>
   </si>
   <si>
-    <t>Data source for Gains in Skills/Knowledge - Relevance in Master</t>
-  </si>
-  <si>
-    <t>Data full source for Gains in Skills/Knowledge - Relevance in Master</t>
+    <t>Data source for Gains in Skill/Knowledge - Relevance in Master</t>
+  </si>
+  <si>
+    <t>Data full source for Gains in Skill/Knowledge - Relevance in Master</t>
   </si>
 </sst>
 </file>
